--- a/public/data/soil/soil_table_equatorial_guinea.xlsx
+++ b/public/data/soil/soil_table_equatorial_guinea.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -976,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>1007.2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.394</v>
+        <v>9.283</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>1355.4</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.723</v>
+        <v>12.553</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>2164.3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.35</v>
+        <v>11.902</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>5470.3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.864</v>
+        <v>15.083</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>1548.7</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.944</v>
+        <v>11.371</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>2795</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>9596.9</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.561</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="n">
-        <v>1981.4</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.097</v>
+        <v>2.388</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>1610.4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.187</v>
+        <v>2.511</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="n">
-        <v>1471</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.054</v>
+        <v>4.815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>52</v>
       </c>
       <c r="D19" t="n">
-        <v>2362.4</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.54</v>
+        <v>2.595</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>3699.1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>766.5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>109.4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>3960</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.737</v>
+        <v>6.453</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1431,19 +1431,19 @@
         <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>24.3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.106</v>
+        <v>5.226</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1501,19 +1501,19 @@
         <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>3103.6</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>38.7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.019</v>
+        <v>8.274</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>59</v>
       </c>
       <c r="D25" t="n">
-        <v>2297.7</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.081</v>
+        <v>5.917</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1571,25 +1571,25 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>444.1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>62</v>
       </c>
       <c r="D27" t="n">
-        <v>3074</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.891</v>
+        <v>15.639</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>63</v>
       </c>
       <c r="D28" t="n">
-        <v>4583.6</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.234</v>
+        <v>13.544</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>159.8</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.097</v>
+        <v>1.659</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>709.2</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.425</v>
+        <v>2.16</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>225.7</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.197</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>5282.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.538</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>5177.2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.122</v>
+        <v>1.932</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_equatorial_guinea.xlsx
+++ b/public/data/soil/soil_table_equatorial_guinea.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -976,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1525.8</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>814.5</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>43</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1041.1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3324.2</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1805.3</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>47</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2893.5</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>48</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4260.4</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2038.2</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2464.9</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>906.6</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>52</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3682.1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1731</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>64.7</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>275.6</v>
       </c>
       <c r="H24" t="n">
         <v>8.274</v>
@@ -1536,7 +1536,7 @@
         <v>59</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>441.5</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>67.1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>62</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4272.4</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1641,7 +1641,7 @@
         <v>63</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4808.6</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2517.9</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>943.1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>362.4</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5177.3</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2999.4</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
